--- a/SCPI_DEF.xlsx
+++ b/SCPI_DEF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joris\Desktop\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achtenj\Desktop\Pyvisa-main - Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984AC27E-D963-460D-87B5-0AF7A227E431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2096664C-95CB-4E25-8F95-4B3FDC030DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XDM2041" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,10 @@
     <sheet name="Z650-1-U" sheetId="5" r:id="rId6"/>
     <sheet name="SDS1104X-U" sheetId="6" r:id="rId7"/>
     <sheet name="SDS1204X-E" sheetId="8" r:id="rId8"/>
-    <sheet name="SDL1020X-E" sheetId="7" r:id="rId9"/>
+    <sheet name="SDS5034X" sheetId="10" r:id="rId9"/>
+    <sheet name="SDL1020X-E" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -38,7 +34,7 @@
     <author>ChatGPT</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{810885CA-6C7F-4DBB-BCCD-82045170265F}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B1EEAA9B-673E-4220-ABA5-DB40C7742955}">
       <text>
         <r>
           <rPr>
@@ -62,7 +58,7 @@
     <author>ChatGPT</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A66AB0FA-5FE0-4919-AC5D-C06560AA7A53}">
       <text>
         <r>
           <rPr>
@@ -81,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="251">
   <si>
     <t>Name</t>
   </si>
@@ -230,27 +226,12 @@
     <t>str</t>
   </si>
   <si>
-    <t>KORAD KA3005PS V1.0 SN:03820940</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>STATUS?</t>
   </si>
   <si>
-    <t>STATE:0;1</t>
-  </si>
-  <si>
-    <t>Set output state</t>
-  </si>
-  <si>
-    <t>OUT{STATE}</t>
-  </si>
-  <si>
-    <t>KORAD KA3005P V1.0 SN:03820940</t>
-  </si>
-  <si>
     <t>Reset</t>
   </si>
   <si>
@@ -335,18 +316,6 @@
     <t>CH:C1;C2 | SHAPE:SINE;SQUARE;TRIANGLE;UPRAMP;DNRAMP;NOISE;ARB</t>
   </si>
   <si>
-    <t>AM: set frequency</t>
-  </si>
-  <si>
-    <t>{CH}:MDWV AM,FRQ,{FREQ}</t>
-  </si>
-  <si>
-    <t>AM: set depth</t>
-  </si>
-  <si>
-    <t>{CH}:MDWV AM,DEPTH,{DEPTH}</t>
-  </si>
-  <si>
     <t>FM: set deviation</t>
   </si>
   <si>
@@ -422,21 +391,6 @@
     <t>{CH}:BTWV TRSR,{TRSR}</t>
   </si>
   <si>
-    <t>Copy channel parameters</t>
-  </si>
-  <si>
-    <t>PACP {DEST},{SRC}</t>
-  </si>
-  <si>
-    <t>DEST:C1;C2 | SRC:C1;C2</t>
-  </si>
-  <si>
-    <t>CH:C1;C2 | FREQ</t>
-  </si>
-  <si>
-    <t>CH:C1;C2 | DEPTH</t>
-  </si>
-  <si>
     <t>Parameter(s)</t>
   </si>
   <si>
@@ -566,33 +520,9 @@
     <t>Query error</t>
   </si>
   <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>RUN</t>
-  </si>
-  <si>
-    <t>Stop</t>
-  </si>
-  <si>
-    <t>STOP</t>
-  </si>
-  <si>
-    <t>Single acquisition</t>
-  </si>
-  <si>
-    <t>SINGle</t>
-  </si>
-  <si>
-    <t>CH:1;2;3;4</t>
-  </si>
-  <si>
     <t>Set vertical offset</t>
   </si>
   <si>
-    <t>CHANnel{CH}:OFFSet {OFFS}</t>
-  </si>
-  <si>
     <t>Set time scale</t>
   </si>
   <si>
@@ -605,24 +535,9 @@
     <t>TIMebase:SCALe?</t>
   </si>
   <si>
-    <t>Set time offset</t>
-  </si>
-  <si>
-    <t>TIMebase:OFFSet {OFFS}</t>
-  </si>
-  <si>
-    <t>OFFS</t>
-  </si>
-  <si>
-    <t>TIMebase:OFFSet?</t>
-  </si>
-  <si>
     <t>Set trigger source</t>
   </si>
   <si>
-    <t>TRIGger:EDGE:SOURce CHANnel{CH}</t>
-  </si>
-  <si>
     <t>Set trigger slope</t>
   </si>
   <si>
@@ -635,12 +550,6 @@
     <t>Set trigger level</t>
   </si>
   <si>
-    <t>TRIGger:EDGE:LEVel {LEV}</t>
-  </si>
-  <si>
-    <t>LEV:V.3f</t>
-  </si>
-  <si>
     <t>TRIGger:EDGE:LEVel?</t>
   </si>
   <si>
@@ -665,27 +574,9 @@
     <t>TYPE:NORM;AVER;PEAK;HRES</t>
   </si>
   <si>
-    <t>Read acquisition type</t>
-  </si>
-  <si>
     <t>ACQuire:TYPE?</t>
   </si>
   <si>
-    <t>Set averaging count</t>
-  </si>
-  <si>
-    <t>ACQuire:AVERage {COUNT}</t>
-  </si>
-  <si>
-    <t>COUNT</t>
-  </si>
-  <si>
-    <t>Read averaging count</t>
-  </si>
-  <si>
-    <t>ACQuire:AVERage?</t>
-  </si>
-  <si>
     <t>Save screenshot to USB</t>
   </si>
   <si>
@@ -701,9 +592,6 @@
     <t>Display trace</t>
   </si>
   <si>
-    <t>Set coupling</t>
-  </si>
-  <si>
     <t>{CH}:TRAce {mode}</t>
   </si>
   <si>
@@ -734,15 +622,6 @@
     <t>Force trigger</t>
   </si>
   <si>
-    <t xml:space="preserve">TRMD SINGLE;ARM;FRTR </t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>ARM</t>
-  </si>
-  <si>
     <t>Trigger mode</t>
   </si>
   <si>
@@ -782,9 +661,6 @@
     <t>Set protection</t>
   </si>
   <si>
-    <t>MODE:OCP;OVP|STATE:0;1</t>
-  </si>
-  <si>
     <t>{MODE}{STATE}</t>
   </si>
   <si>
@@ -818,9 +694,6 @@
     <t>{CH}:BSWV {PARAM},{VALUE}</t>
   </si>
   <si>
-    <t>CH:C1;C2 | PARAM:FREQ;PERI;AMP;OFST;HLEV;LLEV;PHSE;DUTY;WIDTH|VALUE</t>
-  </si>
-  <si>
     <t>AM: set Parameter</t>
   </si>
   <si>
@@ -830,30 +703,6 @@
     <t>CH:C1;C2 | PARAM:FRQ;DEPTH|VALUE</t>
   </si>
   <si>
-    <t>Get voltage</t>
-  </si>
-  <si>
-    <t>MEAS:VOLT:DC?</t>
-  </si>
-  <si>
-    <t>Get current</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEAS:CURR:DC? </t>
-  </si>
-  <si>
-    <t>Get Power</t>
-  </si>
-  <si>
-    <t>MEAS:POW:DC?</t>
-  </si>
-  <si>
-    <t>Get Resistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEAS:RES:DC? </t>
-  </si>
-  <si>
     <t>Read output</t>
   </si>
   <si>
@@ -863,9 +712,6 @@
     <t>UNIT:CURR;VOLT;POW;RES</t>
   </si>
   <si>
-    <t>Set Input State</t>
-  </si>
-  <si>
     <t>:SOUR:INP:STAT {STATE}</t>
   </si>
   <si>
@@ -884,30 +730,6 @@
     <t>STATE:CURR;VOLT;POW;RES</t>
   </si>
   <si>
-    <t>Set voltage level</t>
-  </si>
-  <si>
-    <t>:SOUR:VOLT:LEV:IMM {value}</t>
-  </si>
-  <si>
-    <t>Set current level</t>
-  </si>
-  <si>
-    <t>:SOUR:CURR:LEV:IMM {value}</t>
-  </si>
-  <si>
-    <t>Set power level</t>
-  </si>
-  <si>
-    <t>:SOUR:POW:LEV:IMM {value}</t>
-  </si>
-  <si>
-    <t>Set resistance level</t>
-  </si>
-  <si>
-    <t>:SOUR:RES:LEV:IMM {value}</t>
-  </si>
-  <si>
     <t>Enable remote sense</t>
   </si>
   <si>
@@ -920,21 +742,6 @@
     <t>Measure parameter</t>
   </si>
   <si>
-    <t>MEASure:{PARAM}? CHANnel{CH}</t>
-  </si>
-  <si>
-    <t>PARAM::FREQ;VPP;VRMS;VAVERAGE;DUTY|CH:1;2;3;4</t>
-  </si>
-  <si>
-    <t>Measure parameter2</t>
-  </si>
-  <si>
-    <t>PACU:{PARAM}? CHANnel{CH}</t>
-  </si>
-  <si>
-    <t>PARAM::PKPK;MAX;MIN;AMPL;TOP;BASE;CMEAN;MEAN;RMS;CRMS;OVSN;FPRE;OVSP;RPRE;PER;FREQ;PWID;NWID;RISE;FALL;WID;DUTY;NDUTY;ALL|CH:1;2;3;4</t>
-  </si>
-  <si>
     <t>{CH}:PAVA? {PARAM}</t>
   </si>
   <si>
@@ -1005,6 +812,24 @@
   </si>
   <si>
     <t>To convert raw to PIL image:</t>
+  </si>
+  <si>
+    <t>STATE:OFF;ON</t>
+  </si>
+  <si>
+    <t>Set level</t>
+  </si>
+  <si>
+    <t>Enable load</t>
+  </si>
+  <si>
+    <t>STATE:CURR;VOLT;POW;RES | VALUE</t>
+  </si>
+  <si>
+    <t>:SOUR:{STATE}:LEV:IMM {VALUE}</t>
+  </si>
+  <si>
+    <t>MODE:OUT;OCP;OVP|STATE:0;1</t>
   </si>
 </sst>
 </file>
@@ -2145,6 +1970,192 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>168664</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C678D298-7BA7-44F8-A497-C937638C8B4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20676870" y="723900"/>
+          <a:ext cx="7400044" cy="4915621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>211871</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394212AE-2206-4FFF-8C77-F806760FAEE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22033230" y="5987415"/>
+          <a:ext cx="3044606" cy="1367991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>172474</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>23581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B14585-2F36-4214-B886-DFAABB7DB230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20671155" y="731520"/>
+          <a:ext cx="7405759" cy="4961341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219491</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B2F4036-00CA-4F5B-BBBD-495AE5250BF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22023705" y="6046470"/>
+          <a:ext cx="3052226" cy="1377516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -2298,12 +2309,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" customWidth="1"/>
+    <col min="7" max="7" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -2525,6 +2536,132 @@
       </c>
       <c r="G16" s="4">
         <v>-96.000169999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7811CF-7B67-4481-8807-C8AB2B6C2465}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2537,18 +2674,18 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2571,97 +2708,69 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2674,18 +2783,18 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2711,97 +2820,69 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>234</v>
-      </c>
-      <c r="D7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2817,16 +2898,16 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.28515625" customWidth="1"/>
-    <col min="7" max="7" width="85.140625" customWidth="1"/>
+    <col min="4" max="4" width="82.33203125" customWidth="1"/>
+    <col min="7" max="7" width="85.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -2867,13 +2948,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="12"/>
@@ -2881,295 +2962,295 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E4" s="10"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E5" s="10"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E6" s="10"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E7" s="12"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="E8" s="12"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E9" s="10"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E10" s="10"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E11" s="10"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E12" s="10"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="E13" s="10"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="10" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E14" s="10"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E15" s="10"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="12" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E16" s="12"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="12" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="E17" s="12"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="12" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E18" s="12"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="12" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E19" s="12"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E20" s="12"/>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="12" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="27.95" customHeight="1">
+    <row r="22" spans="1:7" ht="27.9" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3179,48 +3260,48 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E23" s="5"/>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E24" s="5"/>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E25" s="5"/>
       <c r="G25" s="6"/>
@@ -3233,7 +3314,7 @@
       <c r="E26" s="5"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="27.95" customHeight="1">
+    <row r="27" spans="1:7" ht="27.9" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3256,16 +3337,16 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A1:A33"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.28515625" customWidth="1"/>
-    <col min="7" max="7" width="85.140625" customWidth="1"/>
+    <col min="4" max="4" width="82.33203125" customWidth="1"/>
+    <col min="7" max="7" width="85.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -3284,393 +3365,400 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="12" t="s">
         <v>48</v>
       </c>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="D4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="E4" s="10"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="E5" s="10"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="B6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="D6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="E6" s="10"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="B7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
+      <c r="D7" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="E7" s="12"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" ht="27.9" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" ht="27.9" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="27.9" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="E15" s="10"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="27.9" customHeight="1">
+      <c r="A16" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A16" s="5" t="s">
+      <c r="D16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="27.9" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="27.9" customHeight="1">
+      <c r="A18" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A18" s="5" t="s">
+      <c r="D18" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="E18" s="12"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="27.9" customHeight="1">
+      <c r="A19" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="B19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="D19" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="E19" s="12"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="27.9" customHeight="1">
+      <c r="A20" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
+      <c r="B20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="12"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="27.95" customHeight="1">
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
+    <row r="21" spans="1:7" ht="27.9" customHeight="1">
+      <c r="A21" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>202</v>
+      </c>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="5"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
-        <v>238</v>
+        <v>97</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>240</v>
+        <v>98</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>239</v>
+        <v>57</v>
       </c>
       <c r="E23" s="5"/>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E24" s="5"/>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E25" s="5"/>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="5"/>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>242</v>
-      </c>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="5"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" ht="27.95" customHeight="1">
+    <row r="28" spans="1:7" ht="27.9" customHeight="1">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3679,70 +3767,38 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>62</v>
-      </c>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="5"/>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>110</v>
-      </c>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="5"/>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="5"/>
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>115</v>
-      </c>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="5"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" ht="27.95" customHeight="1">
+    <row r="33" spans="1:7" ht="27.9" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3762,15 +3818,15 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3784,12 +3840,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>7</v>
@@ -3801,217 +3857,217 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -4031,19 +4087,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC2B197-BBF6-4032-B079-82991FDC08F6}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="162.42578125" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="4" max="4" width="162.44140625" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4066,7 +4125,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>7</v>
@@ -4078,25 +4137,25 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -4108,117 +4167,117 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>291</v>
+        <v>228</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>290</v>
+        <v>227</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4230,41 +4289,41 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c r="D17" s="8"/>
     </row>
@@ -4283,47 +4342,47 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>299</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4335,60 +4394,60 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8" t="s">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>284</v>
+        <v>221</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>295</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4399,53 +4458,53 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="8" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="8" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>305</v>
+        <v>242</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -4457,19 +4516,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C850955B-3547-4061-AAB8-09C8A9620129}">
-  <dimension ref="A1:F41"/>
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="A1:XFD1048576"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="162.42578125" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="4" max="4" width="162.44140625" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4492,7 +4554,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>7</v>
@@ -4504,469 +4566,404 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D4" s="8"/>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>214</v>
+        <v>147</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>185</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>162</v>
-      </c>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8" t="s">
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>167</v>
-      </c>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E30" s="8"/>
+        <v>232</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B31" s="8" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="C34" t="s">
+        <v>241</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>244</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7811CF-7B67-4481-8807-C8AB2B6C2465}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97FABA3-097E-44FB-AC44-DC43E2BCB82B}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="162.44140625" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4982,172 +4979,393 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C30" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>262</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>263</v>
-      </c>
-      <c r="D10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>264</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>267</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>271</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>273</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>275</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>276</v>
-      </c>
-      <c r="D16" t="s">
-        <v>154</v>
+      <c r="C34" t="s">
+        <v>241</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SCPI_DEF.xlsx
+++ b/SCPI_DEF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achtenj\Desktop\Pyvisa-main - Copy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joris\Documents\GitHub\Pyvisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2096664C-95CB-4E25-8F95-4B3FDC030DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1308789-D9BB-4FDD-97F5-C48F5F541CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14115" yWindow="375" windowWidth="14295" windowHeight="15105" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XDM2041" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,11 @@
     <sheet name="SDL1020X-E" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -77,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="244">
   <si>
     <t>Name</t>
   </si>
@@ -532,63 +537,15 @@
     <t>TIME</t>
   </si>
   <si>
-    <t>TIMebase:SCALe?</t>
-  </si>
-  <si>
     <t>Set trigger source</t>
   </si>
   <si>
     <t>Set trigger slope</t>
   </si>
   <si>
-    <t>TRIGger:EDGE:SLOPe {SLOPE}</t>
-  </si>
-  <si>
-    <t>SLOPE:POS;NEG</t>
-  </si>
-  <si>
     <t>Set trigger level</t>
   </si>
   <si>
-    <t>TRIGger:EDGE:LEVel?</t>
-  </si>
-  <si>
-    <t>Set trigger mode</t>
-  </si>
-  <si>
-    <t>TRIGger:MODE {MODE}</t>
-  </si>
-  <si>
-    <t>MODE:AUTO;NORM;SING</t>
-  </si>
-  <si>
-    <t>TRIGger:MODE?</t>
-  </si>
-  <si>
-    <t>Set acquisition type</t>
-  </si>
-  <si>
-    <t>ACQuire:TYPE {TYPE}</t>
-  </si>
-  <si>
-    <t>TYPE:NORM;AVER;PEAK;HRES</t>
-  </si>
-  <si>
-    <t>ACQuire:TYPE?</t>
-  </si>
-  <si>
-    <t>Save screenshot to USB</t>
-  </si>
-  <si>
-    <t>SAVE:IMAGe "{path}"</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>for example: USB0:/screen.png</t>
-  </si>
-  <si>
     <t>Display trace</t>
   </si>
   <si>
@@ -748,12 +705,6 @@
     <t>TRMD SINGLE;ARM</t>
   </si>
   <si>
-    <t>CHANnel{CH}:OFFSet {OFFSET}</t>
-  </si>
-  <si>
-    <t>CH:1;2;3;4|OFFSET</t>
-  </si>
-  <si>
     <t>CH:C1;C2;C3;C4|mode:ON;OFF</t>
   </si>
   <si>
@@ -766,39 +717,24 @@
     <t>{CH}:ATTN {mode}</t>
   </si>
   <si>
-    <t>Set input Bandwith</t>
-  </si>
-  <si>
     <t>Set input coupling</t>
   </si>
   <si>
     <t>Set input attenuation</t>
   </si>
   <si>
-    <t>CH:1;2;3;4|PARAM:ALL;AMPL;BASE;CMEAN;CRMS;DUTY;FALL;FREQ;FPRE;MAX;MIN;MEAN;NDUTY;NWID;OVSN;PKPK;PER;RPRE;PWID;RMS;RISE;TOP;WID</t>
-  </si>
-  <si>
     <t>SET50</t>
   </si>
   <si>
-    <t>Set trigger half input level</t>
-  </si>
-  <si>
     <t>{CH}:TRCP {MODE}</t>
   </si>
   <si>
-    <t>CH:1;2;3;4|MODE:DC;AC;HFREJ;LFREJ</t>
-  </si>
-  <si>
     <t>TRDL {TIME}</t>
   </si>
   <si>
     <t>Set trigger delay (1E-9)</t>
   </si>
   <si>
-    <t>CH:1;2;3;4|LEVEL</t>
-  </si>
-  <si>
     <t>{CH}:TRLV {LEVEL}</t>
   </si>
   <si>
@@ -830,6 +766,54 @@
   </si>
   <si>
     <t>MODE:OUT;OCP;OVP|STATE:0;1</t>
+  </si>
+  <si>
+    <t>CH:C1;C2;C3;C4|MODE:DC;AC;HFREJ;LFREJ</t>
+  </si>
+  <si>
+    <t>CH:C1;C2;C3;C4|LEVEL</t>
+  </si>
+  <si>
+    <t>CH:C1;C2;C3;C4|PARAM:ALL;AMPL;BASE;CMEAN;CRMS;DUTY;FALL;FREQ;FPRE;MAX;MIN;MEAN;NDUTY;NWID;OVSN;PKPK;PER;RPRE;PWID;RMS;RISE;TOP;WID</t>
+  </si>
+  <si>
+    <t>CH:C1;C2;C3;C4|OFFSET</t>
+  </si>
+  <si>
+    <t>{CH}:OFFSet {OFFSET}</t>
+  </si>
+  <si>
+    <t>Custom CMD</t>
+  </si>
+  <si>
+    <t>{CMD}</t>
+  </si>
+  <si>
+    <t>CH:C1;C2;C3;C4;EX;EX5|SLOPE:POS;NEG;WINDOW</t>
+  </si>
+  <si>
+    <t>{CH}:TRSL {SLOPE}</t>
+  </si>
+  <si>
+    <t>Set BW filter 20Mhz</t>
+  </si>
+  <si>
+    <t>Auto trigger level</t>
+  </si>
+  <si>
+    <t>ASET</t>
+  </si>
+  <si>
+    <t>Auto Setup</t>
+  </si>
+  <si>
+    <t>Set trace unit</t>
+  </si>
+  <si>
+    <t>CH:C1;C2;C3;C4|unit:V;A</t>
+  </si>
+  <si>
+    <t>{CH}:UNIT {unit}</t>
   </si>
 </sst>
 </file>
@@ -900,7 +884,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -934,6 +918,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1882,15 +1870,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>172474</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>721</xdr:rowOff>
+      <xdr:colOff>191524</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>105496</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1913,7 +1901,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20116800" y="1162050"/>
+          <a:off x="20135850" y="295275"/>
           <a:ext cx="7335274" cy="5163271"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1927,13 +1915,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2143125</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219491</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>85926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2060,6 +2048,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>191524</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>105496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D197CDC8-C25F-44DE-B63D-34AFBFD89012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20135850" y="295275"/>
+          <a:ext cx="7335274" cy="5163271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219491</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEBCCA07-30C5-423A-A9F9-4BC10A695533}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21469350" y="5715000"/>
+          <a:ext cx="2981741" cy="1438476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2145,6 +2221,94 @@
         <a:xfrm>
           <a:off x="22023705" y="6046470"/>
           <a:ext cx="3052226" cy="1377516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>191524</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>105496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F505B0B4-9DA0-4851-BA5C-629D4BDDF23B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20135850" y="295275"/>
+          <a:ext cx="7335274" cy="5163271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219491</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{602A8BCC-2FCF-4D7A-9E02-8015B1C2C242}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21469350" y="5715000"/>
+          <a:ext cx="2981741" cy="1438476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2309,12 +2473,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="3" max="3" width="30.44140625" customWidth="1"/>
-    <col min="4" max="4" width="63.6640625" customWidth="1"/>
-    <col min="7" max="7" width="40.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="63.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -2547,16 +2711,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7811CF-7B67-4481-8807-C8AB2B6C2465}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2582,83 +2746,83 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D7" t="s">
         <v>140</v>
@@ -2680,12 +2844,12 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2719,58 +2883,58 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2789,12 +2953,12 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2831,58 +2995,58 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2901,13 +3065,13 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.33203125" customWidth="1"/>
-    <col min="7" max="7" width="85.109375" customWidth="1"/>
+    <col min="4" max="4" width="82.28515625" customWidth="1"/>
+    <col min="7" max="7" width="85.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -3026,16 +3190,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="E8" s="12"/>
       <c r="G8" s="6"/>
@@ -3106,16 +3270,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E13" s="10"/>
       <c r="G13" s="6"/>
@@ -3170,16 +3334,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="12" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="E17" s="12"/>
       <c r="G17" s="6"/>
@@ -3243,14 +3407,14 @@
         <v>96</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="27.9" customHeight="1">
+    <row r="22" spans="1:7" ht="27.95" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3314,7 +3478,7 @@
       <c r="E26" s="5"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="27.9" customHeight="1">
+    <row r="27" spans="1:7" ht="27.95" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3340,13 +3504,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.33203125" customWidth="1"/>
-    <col min="7" max="7" width="85.109375" customWidth="1"/>
+    <col min="4" max="4" width="82.28515625" customWidth="1"/>
+    <col min="7" max="7" width="85.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -3462,16 +3626,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="E8" s="12"/>
       <c r="G8" s="6"/>
@@ -3540,23 +3704,23 @@
       <c r="E12" s="10"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="27.9" customHeight="1">
+    <row r="13" spans="1:7" ht="27.95" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E13" s="10"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="27.9" customHeight="1">
+    <row r="14" spans="1:7" ht="27.95" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>79</v>
       </c>
@@ -3572,7 +3736,7 @@
       <c r="E14" s="10"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="27.9" customHeight="1">
+    <row r="15" spans="1:7" ht="27.95" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>82</v>
       </c>
@@ -3588,7 +3752,7 @@
       <c r="E15" s="10"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="27.9" customHeight="1">
+    <row r="16" spans="1:7" ht="27.95" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>84</v>
       </c>
@@ -3604,23 +3768,23 @@
       <c r="E16" s="12"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="27.9" customHeight="1">
+    <row r="17" spans="1:7" ht="27.95" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="E17" s="12"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="27.9" customHeight="1">
+    <row r="18" spans="1:7" ht="27.95" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>86</v>
       </c>
@@ -3636,7 +3800,7 @@
       <c r="E18" s="12"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="27.9" customHeight="1">
+    <row r="19" spans="1:7" ht="27.95" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>89</v>
       </c>
@@ -3652,7 +3816,7 @@
       <c r="E19" s="12"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="27.9" customHeight="1">
+    <row r="20" spans="1:7" ht="27.95" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>92</v>
       </c>
@@ -3668,7 +3832,7 @@
       <c r="E20" s="12"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="27.9" customHeight="1">
+    <row r="21" spans="1:7" ht="27.95" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>95</v>
       </c>
@@ -3679,10 +3843,10 @@
         <v>96</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -3758,7 +3922,7 @@
       <c r="E27" s="5"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" ht="27.9" customHeight="1">
+    <row r="28" spans="1:7" ht="27.95" customHeight="1">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3798,7 +3962,7 @@
       <c r="E32" s="5"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" ht="27.9" customHeight="1">
+    <row r="33" spans="1:7" ht="27.95" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3821,12 +3985,12 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4092,17 +4256,17 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="162.44140625" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="162.42578125" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4124,16 +4288,19 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8"/>
+      <c r="A2" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
@@ -4160,353 +4327,330 @@
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>239</v>
+      </c>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>226</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1">
       <c r="A13" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8" t="s">
+      <c r="B17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8" t="s">
-        <v>156</v>
+        <v>206</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>233</v>
-      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>241</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
+    </row>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4519,19 +4663,19 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="162.44140625" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="162.42578125" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4553,16 +4697,19 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8"/>
+      <c r="A2" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
@@ -4589,351 +4736,326 @@
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>239</v>
+      </c>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>226</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1">
       <c r="A13" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8" t="s">
+      <c r="B17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8" t="s">
-        <v>156</v>
+        <v>206</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>233</v>
-      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>241</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -4947,19 +5069,19 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="162.44140625" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="162.42578125" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4981,16 +5103,19 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="8"/>
+      <c r="A2" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
@@ -5017,351 +5142,326 @@
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>239</v>
+      </c>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>172</v>
+        <v>243</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>226</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1">
       <c r="A13" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8" t="s">
+      <c r="B17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="B20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="8" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8" t="s">
-        <v>156</v>
+        <v>206</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>233</v>
-      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>241</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/SCPI_DEF.xlsx
+++ b/SCPI_DEF.xlsx
@@ -1,35 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joris\Documents\GitHub\Pyvisa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achtenj\Desktop\Pyvisa-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1308789-D9BB-4FDD-97F5-C48F5F541CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BA57B3-2D38-402F-A2A1-CA2EBD336314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14115" yWindow="375" windowWidth="14295" windowHeight="15105" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XDM2041" sheetId="1" r:id="rId1"/>
     <sheet name="KA3005PS" sheetId="2" r:id="rId2"/>
     <sheet name="KA3005P" sheetId="3" r:id="rId3"/>
-    <sheet name="SDG2042X" sheetId="9" r:id="rId4"/>
-    <sheet name="SDG1032X" sheetId="4" r:id="rId5"/>
-    <sheet name="Z650-1-U" sheetId="5" r:id="rId6"/>
-    <sheet name="SDS1104X-U" sheetId="6" r:id="rId7"/>
-    <sheet name="SDS1204X-E" sheetId="8" r:id="rId8"/>
-    <sheet name="SDS5034X" sheetId="10" r:id="rId9"/>
-    <sheet name="SDL1020X-E" sheetId="7" r:id="rId10"/>
+    <sheet name="GDM9061" sheetId="12" r:id="rId4"/>
+    <sheet name="SDG2042X" sheetId="9" r:id="rId5"/>
+    <sheet name="SDG1032X" sheetId="4" r:id="rId6"/>
+    <sheet name="Z650-1-U" sheetId="5" r:id="rId7"/>
+    <sheet name="SDS1104X-U" sheetId="6" r:id="rId8"/>
+    <sheet name="SDS1204X-E" sheetId="8" r:id="rId9"/>
+    <sheet name="SDS5034X" sheetId="10" r:id="rId10"/>
+    <sheet name="DS4024" sheetId="11" r:id="rId11"/>
+    <sheet name="SDL1020X-E" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -82,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="305">
   <si>
     <t>Name</t>
   </si>
@@ -615,9 +612,6 @@
     <t>{VA}OUT1?</t>
   </si>
   <si>
-    <t>Set protection</t>
-  </si>
-  <si>
     <t>{MODE}{STATE}</t>
   </si>
   <si>
@@ -814,6 +808,192 @@
   </si>
   <si>
     <t>{CH}:UNIT {unit}</t>
+  </si>
+  <si>
+    <t>:SYSTem:ERRor?</t>
+  </si>
+  <si>
+    <t>:CHANnel{CH}:DISPlay {mode}</t>
+  </si>
+  <si>
+    <t>1|0</t>
+  </si>
+  <si>
+    <t>:CHANnel{CH}:COUPling {mode}</t>
+  </si>
+  <si>
+    <t>:CHANnel{CH}:PROBe {ratio}</t>
+  </si>
+  <si>
+    <t>Set input Bandwith</t>
+  </si>
+  <si>
+    <t>:CHANnel{CH}:BWLimit {mode}</t>
+  </si>
+  <si>
+    <t>:CHANnel{CH}:OFFSet {OFFSET}</t>
+  </si>
+  <si>
+    <t>:TIMebase:MAIN:SCALe {value}</t>
+  </si>
+  <si>
+    <t>value (s/div)</t>
+  </si>
+  <si>
+    <t>:TRIGger:SWEep {state}</t>
+  </si>
+  <si>
+    <t>TRIGger:SWEep?</t>
+  </si>
+  <si>
+    <t>:TRIGger:MODE {trig_type};:TRIGger:EDGe:SOURce {source}</t>
+  </si>
+  <si>
+    <t>:TRIGger:MODE?</t>
+  </si>
+  <si>
+    <t>:TRIGger:COUPling {MODE}</t>
+  </si>
+  <si>
+    <t>MODE:AC;DC;LFReject;HFReject</t>
+  </si>
+  <si>
+    <t>:TRIGger:COUPling?</t>
+  </si>
+  <si>
+    <t>:TIMebase:MAIN:OFFSet {TIME}</t>
+  </si>
+  <si>
+    <t>TIME (s)</t>
+  </si>
+  <si>
+    <t>:TIMebase:MAIN:OFFSet?</t>
+  </si>
+  <si>
+    <t>:TRIGger:EDGe:LEVel {LEVEL}</t>
+  </si>
+  <si>
+    <t>LEVEL (V, depends on source units)</t>
+  </si>
+  <si>
+    <t>:TRIGger:EDGe:LEVel?</t>
+  </si>
+  <si>
+    <t>:TRIGger:EDGe:SLOPe {SLOPE}</t>
+  </si>
+  <si>
+    <t>SLOPE:POSitive;NEGative;RFALl</t>
+  </si>
+  <si>
+    <t>:TRIGger:EDGe:SLOPe?</t>
+  </si>
+  <si>
+    <t>Set acquisition type</t>
+  </si>
+  <si>
+    <t>:ACQuire:TYPE {TYPE}</t>
+  </si>
+  <si>
+    <t>TYPE:NORMal;AVERages;PEAK;HRESolution</t>
+  </si>
+  <si>
+    <t>:ACQuire:TYPE?</t>
+  </si>
+  <si>
+    <t>CH:1;2;3;4 |mode:AC;DC;GND</t>
+  </si>
+  <si>
+    <t>CH:1;2;3;4 |mode:ON;OFF</t>
+  </si>
+  <si>
+    <t>CH:1;2;3;4 |ratio:0.01;0.02;0.05;0.1;0.2;0.5;1;2;5;10;20;50;100;200;500;1000</t>
+  </si>
+  <si>
+    <t>CH:1;2;3;4 |mode:20M;100M;200M;OFF</t>
+  </si>
+  <si>
+    <t>CH:1;2;3;4 |OFFSET</t>
+  </si>
+  <si>
+    <t>state:AUTO;NORM;SING</t>
+  </si>
+  <si>
+    <t>trig_type:EDGE;PULS;SLOP;VID| source:CHANnel1;CHANnel2;CHANnel3;CHANnel4;AC</t>
+  </si>
+  <si>
+    <t>:CHANnel{CH}:SCALe {V_DIV}</t>
+  </si>
+  <si>
+    <t>CH:1;2;3;4 |V_DIV</t>
+  </si>
+  <si>
+    <t>Set Trigger system</t>
+  </si>
+  <si>
+    <t>{MODE}</t>
+  </si>
+  <si>
+    <t>MODE::RUN;:STOP;:TFORce</t>
+  </si>
+  <si>
+    <t>:MEASure: {ITEM}? CHANnel{CH}</t>
+  </si>
+  <si>
+    <t>:DISPlay:DATA?</t>
+  </si>
+  <si>
+    <t>ITEM:ADISplay;AMSource;AREA;CLEar;COUNter:SOURce;COUNter:VALue?;CREGion:CAX;CREGion:CBX;FDELay;F2RDelay;FPHase;F2RPhase;FREQuency;FTIMe;HISTory:DISPlay;HISTory:DMODe;MARea;MPARea;NDUTy;NWIDth;OVERshoot;PDUTy;PERiod;PREShoot;PVRMs;PWIDth;RECover;RDELay;R2FDelay;RPHase;R2FPhase;RTIMe;SETup:DSA;SETup:DSB;SETup:MAX;SETup:MID;SETup:MIN;SETup:PSA;SETup:PSB;SETup:TYPE;STATistic:DISPlay;STATistic:MODE;STATistic:RESet;SOURce;VAMP;VAVG;VBASe;VMAX;VMIN;VPP;VRMS;VTOP|CH:1;2;3;4;MATH</t>
+  </si>
+  <si>
+    <t>Set state</t>
+  </si>
+  <si>
+    <t>Reset SCPI</t>
+  </si>
+  <si>
+    <t>config CH1 VOLT mode</t>
+  </si>
+  <si>
+    <t>CONF:VOLT:{MODE}</t>
+  </si>
+  <si>
+    <t>MODE:DC;AC</t>
+  </si>
+  <si>
+    <t>config CH1 current mode</t>
+  </si>
+  <si>
+    <t>CONF:CURR:{MODE}</t>
+  </si>
+  <si>
+    <t>Read CH1 value</t>
+  </si>
+  <si>
+    <t>VAL1?</t>
+  </si>
+  <si>
+    <t>config CH2 VOLT mode</t>
+  </si>
+  <si>
+    <t>CONF2:VOLT:{MODE}</t>
+  </si>
+  <si>
+    <t>config CH2 current mode</t>
+  </si>
+  <si>
+    <t>CONF2:CURR:{MODE}</t>
+  </si>
+  <si>
+    <t>Read CH2 value</t>
+  </si>
+  <si>
+    <t>VAL2?</t>
+  </si>
+  <si>
+    <t>Perform a read</t>
+  </si>
+  <si>
+    <t>READ?</t>
   </si>
 </sst>
 </file>
@@ -884,7 +1064,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -918,10 +1098,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2473,12 +2649,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" customWidth="1"/>
+    <col min="7" max="7" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -2708,19 +2884,811 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97FABA3-097E-44FB-AC44-DC43E2BCB82B}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="162.44140625" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D0007AE-3B2E-4FE7-ACEA-9693B81B394D}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="162.44140625" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2">
+      <c r="A16" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.2">
+      <c r="A28" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7811CF-7B67-4481-8807-C8AB2B6C2465}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2746,83 +3714,83 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" t="s">
         <v>193</v>
-      </c>
-      <c r="D2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>198</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>199</v>
-      </c>
-      <c r="D3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>201</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>202</v>
-      </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>196</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>197</v>
-      </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
         <v>140</v>
@@ -2841,15 +3809,15 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2892,7 +3860,7 @@
         <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2906,7 +3874,7 @@
         <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2920,21 +3888,21 @@
         <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>177</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>178</v>
-      </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2950,15 +3918,15 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3004,7 +3972,7 @@
         <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3018,7 +3986,7 @@
         <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3032,21 +4000,21 @@
         <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>177</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>178</v>
-      </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3055,6 +4023,156 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD2A42B-4009-4001-8094-279CF8DAC6AE}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{AB89A4EE-A4CD-401B-A433-A326974EE201}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{40C5B5DC-7C77-4044-A7EA-12621A23C8F1}"/>
+    <hyperlink ref="C7" r:id="rId3" display="CONF:CURR:{MODE} {RANGE}" xr:uid="{1C8093FA-2D28-424E-9531-15BDF2F19423}"/>
+    <hyperlink ref="C6" r:id="rId4" display="CONF:VOLT:{MODE} " xr:uid="{64D16AEA-4CF2-4DB4-81A3-17C876699B05}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2515B59-885B-40AA-A8E1-AF69E35D6498}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -3065,13 +4183,13 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.28515625" customWidth="1"/>
-    <col min="7" max="7" width="85.140625" customWidth="1"/>
+    <col min="4" max="4" width="82.33203125" customWidth="1"/>
+    <col min="7" max="7" width="85.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -3190,16 +4308,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>188</v>
-      </c>
       <c r="D8" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E8" s="12"/>
       <c r="G8" s="6"/>
@@ -3270,16 +4388,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="E13" s="10"/>
       <c r="G13" s="6"/>
@@ -3334,16 +4452,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>183</v>
       </c>
       <c r="E17" s="12"/>
       <c r="G17" s="6"/>
@@ -3407,14 +4525,14 @@
         <v>96</v>
       </c>
       <c r="D21" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>186</v>
-      </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="27.95" customHeight="1">
+    <row r="22" spans="1:7" ht="27.9" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -3478,7 +4596,7 @@
       <c r="E26" s="5"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" ht="27.95" customHeight="1">
+    <row r="27" spans="1:7" ht="27.9" customHeight="1">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -3493,7 +4611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -3504,13 +4622,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="82.28515625" customWidth="1"/>
-    <col min="7" max="7" width="85.140625" customWidth="1"/>
+    <col min="4" max="4" width="82.33203125" customWidth="1"/>
+    <col min="7" max="7" width="85.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -3626,16 +4744,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>188</v>
-      </c>
       <c r="D8" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E8" s="12"/>
       <c r="G8" s="6"/>
@@ -3704,23 +4822,23 @@
       <c r="E12" s="10"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="27.95" customHeight="1">
+    <row r="13" spans="1:7" ht="27.9" customHeight="1">
       <c r="A13" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="E13" s="10"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" ht="27.95" customHeight="1">
+    <row r="14" spans="1:7" ht="27.9" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>79</v>
       </c>
@@ -3736,7 +4854,7 @@
       <c r="E14" s="10"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="27.95" customHeight="1">
+    <row r="15" spans="1:7" ht="27.9" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>82</v>
       </c>
@@ -3752,7 +4870,7 @@
       <c r="E15" s="10"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="27.95" customHeight="1">
+    <row r="16" spans="1:7" ht="27.9" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>84</v>
       </c>
@@ -3768,23 +4886,23 @@
       <c r="E16" s="12"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="27.95" customHeight="1">
+    <row r="17" spans="1:7" ht="27.9" customHeight="1">
       <c r="A17" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>183</v>
       </c>
       <c r="E17" s="12"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="27.95" customHeight="1">
+    <row r="18" spans="1:7" ht="27.9" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>86</v>
       </c>
@@ -3800,7 +4918,7 @@
       <c r="E18" s="12"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" ht="27.95" customHeight="1">
+    <row r="19" spans="1:7" ht="27.9" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>89</v>
       </c>
@@ -3816,7 +4934,7 @@
       <c r="E19" s="12"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="27.95" customHeight="1">
+    <row r="20" spans="1:7" ht="27.9" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>92</v>
       </c>
@@ -3832,7 +4950,7 @@
       <c r="E20" s="12"/>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="27.95" customHeight="1">
+    <row r="21" spans="1:7" ht="27.9" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>95</v>
       </c>
@@ -3843,10 +4961,10 @@
         <v>96</v>
       </c>
       <c r="D21" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>185</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="G21" s="6"/>
     </row>
@@ -3922,7 +5040,7 @@
       <c r="E27" s="5"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" ht="27.95" customHeight="1">
+    <row r="28" spans="1:7" ht="27.9" customHeight="1">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -3962,7 +5080,7 @@
       <c r="E32" s="5"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:7" ht="27.95" customHeight="1">
+    <row r="33" spans="1:7" ht="27.9" customHeight="1">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3977,7 +5095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D8A7FA-2F93-4DD6-BBE2-8941E214B32F}">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -3985,12 +5103,12 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4249,7 +5367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC2B197-BBF6-4032-B079-82991FDC08F6}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -4260,13 +5378,13 @@
       <selection activeCell="A18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="162.42578125" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="4" max="4" width="162.44140625" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4288,16 +5406,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1"/>
@@ -4328,13 +5446,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -4354,21 +5472,21 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
@@ -4382,30 +5500,30 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4430,10 +5548,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1">
@@ -4487,10 +5605,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E17" s="8"/>
     </row>
@@ -4502,10 +5620,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4516,15 +5634,15 @@
         <v>11</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>11</v>
@@ -4538,25 +5656,25 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>150</v>
@@ -4570,12 +5688,12 @@
         <v>11</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="8" t="s">
         <v>165</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -4600,16 +5718,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4634,19 +5752,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>219</v>
-      </c>
       <c r="F31" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" customFormat="1"/>
@@ -4658,7 +5776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C850955B-3547-4061-AAB8-09C8A9620129}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -4669,13 +5787,13 @@
       <selection activeCell="C27" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="162.42578125" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="4" max="4" width="162.44140625" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4697,16 +5815,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1"/>
@@ -4737,13 +5855,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -4763,21 +5881,21 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>11</v>
@@ -4791,30 +5909,30 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4839,10 +5957,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1">
@@ -4896,10 +6014,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E17" s="8"/>
     </row>
@@ -4911,10 +6029,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4925,15 +6043,15 @@
         <v>11</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>11</v>
@@ -4947,25 +6065,25 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>150</v>
@@ -4979,12 +6097,12 @@
         <v>11</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="8" t="s">
         <v>165</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -5009,16 +6127,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5043,425 +6161,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>219</v>
-      </c>
       <c r="F31" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97FABA3-097E-44FB-AC44-DC43E2BCB82B}">
-  <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:F31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="37.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="162.42578125" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
-    <col min="6" max="6" width="37" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>218</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>
